--- a/vocab_Base(SWJ - No Manual Input of 5-Star Model).xlsx
+++ b/vocab_Base(SWJ - No Manual Input of 5-Star Model).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>Vocabulary Name</t>
   </si>
@@ -595,24 +595,6 @@
     <t>Base URL not defined (Panlex.rdf)</t>
   </si>
   <si>
-    <t>http://www.w3.org/ns/prov-links</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-overview/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-o/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-aq/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-dictionary/</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/TR/prov-links/</t>
-  </si>
-  <si>
     <t>http://www.nlp2rdf.org/quranvocab</t>
   </si>
   <si>
@@ -629,345 +611,6 @@
   </si>
   <si>
     <t>http://www.modul.ac.at/ontology/TourismOntology.owl</t>
-  </si>
-  <si>
-    <t>http://swa.cefriel.it/ontologies/urbanopoly</t>
-  </si>
-  <si>
-    <t>http://topbraid.org/spin/rdfsplus</t>
-  </si>
-  <si>
-    <t>http://spinrdf.org/spin</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Aerodrome</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/ArchaeologicalSite</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Artwork</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Atm</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Attraction</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bakery</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bank</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bar</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Bench</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BicycleParking</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BicycleRental</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BicycleShop</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Books</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Butcher</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Cafe</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/CarRental</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/CarRepair</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Car</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Castle</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Cemetery</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Cinema</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:tourism%3Dartwork</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:books</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dbutcher</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:clothes</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:colour</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:tourism%3Dinformation</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Museum</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:playground</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Recycling</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Religion</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Sport</t>
-  </si>
-  <si>
-    <t>http://taginfo.openstreetmap.org/keys/tower:type</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Clothes</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/College</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Convenience</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Diy</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/DrinkingWater</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Electronics</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/FastFood</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/FireStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Florist</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Fountain</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Fuel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/GolfCourse</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/GuestHouse</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hairdresser</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hospital</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hostel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Hotel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Information</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Jewelry</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Kindergarten</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Kiosk</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Laundry</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Library</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Mall</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Memorial</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Monument</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Motel</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Motorcycle</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TourismMuseum</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/HistoricMuseum</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Music</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Park</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Pharmacy</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Pitch</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PlaceOfWorship</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Playground</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Police</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PostBox</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PostOffice</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Pub</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BusStop</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TramStop</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BusStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TramStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Recycling</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Restaurant</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/HistoricRuins</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/School</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/SportsCentre</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Stadium</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/SubwayEntrance</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TrainStation</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Supermarket</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/SwimmingPool</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Taxi</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Theatre</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Toilets</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/CommunicationsTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/AerialwayTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/PowerTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/HistoricTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/BuildingTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/ManMadeTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/LookoutTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/AerowayTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/ObservationTower</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Townhall</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Toys</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/University</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/VendingMachine</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/Viewpoint</t>
-  </si>
-  <si>
-    <t>http://linkedgeodata.org/ontology/TourismZoo</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dbicycle</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dcar</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Key:fuel</t>
-  </si>
-  <si>
-    <t>http://wiki.openstreetmap.org/wiki/Tag:shop%3Dmotorcycle</t>
-  </si>
-  <si>
-    <t>http://www.netzwolf.info/en/cartography/osm/time_domain/</t>
   </si>
   <si>
     <t>From Links</t>
@@ -1313,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D324"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3092,7 +2735,10 @@
         <v>196</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3100,974 +2746,10 @@
         <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>198</v>
-      </c>
-      <c r="B205" t="s">
         <v>5</v>
       </c>
-      <c r="D205" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>199</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>200</v>
-      </c>
-      <c r="B207" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>201</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>202</v>
-      </c>
-      <c r="B209" t="s">
-        <v>5</v>
-      </c>
-      <c r="D209" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>203</v>
-      </c>
-      <c r="B210" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>204</v>
-      </c>
-      <c r="B211" t="s">
-        <v>5</v>
-      </c>
-      <c r="D211" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
-        <v>205</v>
-      </c>
-      <c r="B212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
-        <v>206</v>
-      </c>
-      <c r="B213" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>207</v>
-      </c>
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>208</v>
-      </c>
-      <c r="B215" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>209</v>
-      </c>
-      <c r="B216" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>210</v>
-      </c>
-      <c r="B217" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>211</v>
-      </c>
-      <c r="B218" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
-        <v>212</v>
-      </c>
-      <c r="B219" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>213</v>
-      </c>
-      <c r="B220" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
-        <v>214</v>
-      </c>
-      <c r="B221" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>215</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>216</v>
-      </c>
-      <c r="B223" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>217</v>
-      </c>
-      <c r="B224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>218</v>
-      </c>
-      <c r="B225" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>219</v>
-      </c>
-      <c r="B226" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>220</v>
-      </c>
-      <c r="B227" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>221</v>
-      </c>
-      <c r="B228" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>222</v>
-      </c>
-      <c r="B229" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>223</v>
-      </c>
-      <c r="B230" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
-        <v>224</v>
-      </c>
-      <c r="B231" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>225</v>
-      </c>
-      <c r="B232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
-        <v>226</v>
-      </c>
-      <c r="B233" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
-        <v>227</v>
-      </c>
-      <c r="B234" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
-        <v>228</v>
-      </c>
-      <c r="B235" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
-        <v>229</v>
-      </c>
-      <c r="B236" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
-        <v>230</v>
-      </c>
-      <c r="B237" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
-        <v>231</v>
-      </c>
-      <c r="B238" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>232</v>
-      </c>
-      <c r="B239" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>233</v>
-      </c>
-      <c r="B240" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>234</v>
-      </c>
-      <c r="B241" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>235</v>
-      </c>
-      <c r="B242" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>236</v>
-      </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>237</v>
-      </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
-        <v>238</v>
-      </c>
-      <c r="B245" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>239</v>
-      </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
-        <v>240</v>
-      </c>
-      <c r="B247" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
-        <v>241</v>
-      </c>
-      <c r="B248" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
-        <v>242</v>
-      </c>
-      <c r="B249" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
-        <v>243</v>
-      </c>
-      <c r="B250" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
-        <v>244</v>
-      </c>
-      <c r="B251" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
-        <v>245</v>
-      </c>
-      <c r="B252" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
-        <v>246</v>
-      </c>
-      <c r="B253" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
-        <v>247</v>
-      </c>
-      <c r="B254" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
-        <v>248</v>
-      </c>
-      <c r="B255" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
-        <v>249</v>
-      </c>
-      <c r="B256" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
-        <v>250</v>
-      </c>
-      <c r="B257" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
-        <v>251</v>
-      </c>
-      <c r="B258" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
-        <v>252</v>
-      </c>
-      <c r="B259" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
-        <v>253</v>
-      </c>
-      <c r="B260" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
-        <v>254</v>
-      </c>
-      <c r="B261" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
-        <v>255</v>
-      </c>
-      <c r="B262" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
-        <v>256</v>
-      </c>
-      <c r="B263" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
-        <v>257</v>
-      </c>
-      <c r="B264" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
-        <v>258</v>
-      </c>
-      <c r="B265" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
-        <v>259</v>
-      </c>
-      <c r="B266" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
-        <v>260</v>
-      </c>
-      <c r="B267" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
-        <v>261</v>
-      </c>
-      <c r="B268" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
-        <v>262</v>
-      </c>
-      <c r="B269" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
-        <v>263</v>
-      </c>
-      <c r="B270" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" t="s">
-        <v>264</v>
-      </c>
-      <c r="B271" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" t="s">
-        <v>265</v>
-      </c>
-      <c r="B272" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" t="s">
-        <v>266</v>
-      </c>
-      <c r="B273" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
-        <v>267</v>
-      </c>
-      <c r="B274" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" t="s">
-        <v>268</v>
-      </c>
-      <c r="B275" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" t="s">
-        <v>269</v>
-      </c>
-      <c r="B276" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" t="s">
-        <v>270</v>
-      </c>
-      <c r="B277" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" t="s">
-        <v>271</v>
-      </c>
-      <c r="B278" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" t="s">
-        <v>272</v>
-      </c>
-      <c r="B279" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" t="s">
-        <v>273</v>
-      </c>
-      <c r="B280" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" t="s">
-        <v>274</v>
-      </c>
-      <c r="B281" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" t="s">
-        <v>275</v>
-      </c>
-      <c r="B282" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" t="s">
-        <v>276</v>
-      </c>
-      <c r="B283" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" t="s">
-        <v>277</v>
-      </c>
-      <c r="B284" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" t="s">
-        <v>278</v>
-      </c>
-      <c r="B285" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" t="s">
-        <v>279</v>
-      </c>
-      <c r="B286" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" t="s">
-        <v>280</v>
-      </c>
-      <c r="B287" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" t="s">
-        <v>281</v>
-      </c>
-      <c r="B288" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" t="s">
-        <v>282</v>
-      </c>
-      <c r="B289" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" t="s">
-        <v>283</v>
-      </c>
-      <c r="B290" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
-        <v>284</v>
-      </c>
-      <c r="B291" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
-        <v>285</v>
-      </c>
-      <c r="B292" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
-        <v>286</v>
-      </c>
-      <c r="B293" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
-        <v>287</v>
-      </c>
-      <c r="B294" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
-        <v>288</v>
-      </c>
-      <c r="B295" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
-        <v>289</v>
-      </c>
-      <c r="B296" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
-        <v>290</v>
-      </c>
-      <c r="B297" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
-        <v>291</v>
-      </c>
-      <c r="B298" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" t="s">
-        <v>292</v>
-      </c>
-      <c r="B299" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
-        <v>293</v>
-      </c>
-      <c r="B300" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" t="s">
-        <v>294</v>
-      </c>
-      <c r="B301" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
-        <v>295</v>
-      </c>
-      <c r="B302" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" t="s">
-        <v>296</v>
-      </c>
-      <c r="B303" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
-        <v>297</v>
-      </c>
-      <c r="B304" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" t="s">
-        <v>298</v>
-      </c>
-      <c r="B305" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" t="s">
-        <v>299</v>
-      </c>
-      <c r="B306" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" t="s">
-        <v>300</v>
-      </c>
-      <c r="B307" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" t="s">
-        <v>301</v>
-      </c>
-      <c r="B308" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" t="s">
-        <v>302</v>
-      </c>
-      <c r="B309" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
-        <v>303</v>
-      </c>
-      <c r="B310" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" t="s">
-        <v>304</v>
-      </c>
-      <c r="B311" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" t="s">
-        <v>305</v>
-      </c>
-      <c r="B312" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" t="s">
-        <v>306</v>
-      </c>
-      <c r="B313" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" t="s">
-        <v>307</v>
-      </c>
-      <c r="B314" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" t="s">
-        <v>308</v>
-      </c>
-      <c r="B315" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" t="s">
-        <v>309</v>
-      </c>
-      <c r="B316" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" t="s">
-        <v>310</v>
-      </c>
-      <c r="B317" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" t="s">
-        <v>311</v>
-      </c>
-      <c r="B318" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" t="s">
-        <v>312</v>
-      </c>
-      <c r="B319" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" t="s">
-        <v>313</v>
-      </c>
-      <c r="B320" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" t="s">
-        <v>314</v>
-      </c>
-      <c r="B321" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" t="s">
-        <v>315</v>
-      </c>
-      <c r="B322" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" t="s">
-        <v>316</v>
-      </c>
-      <c r="B323" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4"/>
+    </row>
+    <row r="205" spans="1:4"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4123,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4131,7 +2813,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4139,7 +2821,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4147,7 +2829,7 @@
         <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4155,7 +2837,7 @@
         <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4171,7 +2853,7 @@
         <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4179,7 +2861,7 @@
         <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4187,7 +2869,7 @@
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
